--- a/Dokumentaatio/Tuntiseuranta.xlsx
+++ b/Dokumentaatio/Tuntiseuranta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lauri.koro\Documents\FPSPeli\Dokumentaatio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7505F4E1-73EC-406E-AA00-3A562D13698B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD53005D-34FB-4036-8FC5-114D25C35460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7E5162D6-98F6-44D1-8D77-4AD3256AC83A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
   <si>
     <t>PVM</t>
   </si>
@@ -154,18 +154,6 @@
   </si>
   <si>
     <t>Dokumentaatio (Loppuraportti)</t>
-  </si>
-  <si>
-    <t>Summa</t>
-  </si>
-  <si>
-    <t>Keskiarvo</t>
-  </si>
-  <si>
-    <t>Juokseva summa</t>
-  </si>
-  <si>
-    <t>Laske</t>
   </si>
   <si>
     <t>Pelin tekeminen</t>
@@ -423,6 +411,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-3026-4F4D-A182-48D5F2AC2B4C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -438,6 +431,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-3026-4F4D-A182-48D5F2AC2B4C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:delete val="1"/>
@@ -463,10 +461,10 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>24.5</c:v>
+                  <c:v>18.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>65.75</c:v>
+                  <c:v>69.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1472,7 +1470,7 @@
   <dimension ref="A1:M193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1541,8 +1539,8 @@
         <v>3</v>
       </c>
       <c r="M5" s="1">
-        <f>SUM(B2,B4,B3,B8,B9,B33)</f>
-        <v>24.5</v>
+        <f>SUM(B2,B4,B3,B8,B33)</f>
+        <v>18.75</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1556,11 +1554,11 @@
         <v>5</v>
       </c>
       <c r="L6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="M6" s="1">
-        <f>SUM(B10,B12,B14,B15,B16,B17,B20,B25,B26,B27,B28,B29,B30,B31,B32)</f>
-        <v>65.75</v>
+        <f>SUM(B10,B12,B14,B15,B16,B17,B20,B25,B26,B27,B28,B29,B30,B31,B32,B9)</f>
+        <v>69.5</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1593,7 +1591,7 @@
         <v>3.75</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1854,7 +1852,7 @@
         <v>38</v>
       </c>
       <c r="B33" s="3">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>39</v>
@@ -1866,7 +1864,7 @@
       </c>
       <c r="B34" s="3">
         <f>SUM(B2:B33)</f>
-        <v>90.25</v>
+        <v>88.25</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
